--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>次の行動でのフラグが立つ</t>
+  </si>
+  <si>
+    <t>テスト用</t>
   </si>
   <si>
     <t>なし</t>
@@ -638,9 +641,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -652,17 +655,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,8 +669,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,8 +707,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +724,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,28 +761,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -758,16 +770,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,9 +792,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,7 +808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,31 +850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,25 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,37 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,25 +928,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,15 +999,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1019,21 +1013,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,11 +1041,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,17 +1099,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1104,145 +1107,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1569,10 +1572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6049,6 +6052,68 @@
         <v>チャージ</v>
       </c>
     </row>
+    <row r="73" spans="1:19">
+      <c r="A73">
+        <v>9999</v>
+      </c>
+      <c r="B73">
+        <v>9999</v>
+      </c>
+      <c r="C73" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
+        <v>テスト用</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <f>INDEX(Define!B:B,MATCH(E73,Define!A:A))</f>
+        <v>ターン数</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73" t="str">
+        <f>TextData!B72</f>
+        <v>テスト用</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6059,10 +6124,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6849,6 +6914,17 @@
       </c>
       <c r="C71" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>9999</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6878,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6886,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6894,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6902,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6910,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6918,7 +6994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
   <si>
     <t>Id</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>行動後ダメージ</t>
+  </si>
+  <si>
+    <t>暗闇</t>
+  </si>
+  <si>
+    <t>一度だけ魔法が相手に命中しなくなる</t>
   </si>
   <si>
     <t>カウンタ</t>
@@ -641,8 +647,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -669,22 +675,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -707,14 +697,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -725,6 +707,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,6 +744,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -762,10 +768,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,21 +792,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,7 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +850,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,49 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,43 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,12 +995,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,11 +1023,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,35 +1077,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,17 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1113,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,85 +1125,85 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,46 +1212,46 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,10 +1578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1585,8 +1591,8 @@
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="5.54545454545455" customWidth="1"/>
-    <col min="8" max="8" width="4.81818181818182" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="3.90909090909091" customWidth="1"/>
     <col min="11" max="11" width="8.63636363636364" customWidth="1"/>
     <col min="12" max="12" width="8.54545454545454" customWidth="1"/>
@@ -3567,37 +3573,37 @@
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" t="e">
-        <f>TextData!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="S32" t="str">
+        <f>TextData!B31</f>
+        <v>毒</v>
+      </c>
+    </row>
+    <row r="33" ht="12" customHeight="1" spans="1:19">
       <c r="A33">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B33">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX(TextData!B:B,MATCH(B33,TextData!A:A))</f>
-        <v>カウンタ</v>
+        <v>暗闇</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="str">
         <f>INDEX(Define!B:B,MATCH(E33,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3612,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3631,19 +3637,19 @@
       </c>
       <c r="S33" t="str">
         <f>TextData!B32</f>
-        <v>カウンタ</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B34">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX(TextData!B:B,MATCH(B34,TextData!A:A))</f>
-        <v>CAダメージ</v>
+        <v>カウンタ</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -3656,10 +3662,10 @@
         <v>ターン数</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3693,29 +3699,29 @@
       </c>
       <c r="S34" t="str">
         <f>TextData!B33</f>
-        <v>CAダメージ</v>
+        <v>カウンタ</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B35">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX(TextData!B:B,MATCH(B35,TextData!A:A))</f>
-        <v>CAシェル</v>
+        <v>CAダメージ</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX(Define!B:B,MATCH(E35,Define!A:A))</f>
-        <v>なし</v>
+        <v>ターン数</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3755,29 +3761,29 @@
       </c>
       <c r="S35" t="str">
         <f>TextData!B34</f>
-        <v>CAシェル</v>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B36">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX(TextData!B:B,MATCH(B36,TextData!A:A))</f>
-        <v>リジェネ</v>
+        <v>CAシェル</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="str">
         <f>INDEX(Define!B:B,MATCH(E36,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>なし</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3817,35 +3823,35 @@
       </c>
       <c r="S36" t="str">
         <f>TextData!B35</f>
-        <v>リジェネ</v>
+        <v>CAシェル</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B37">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX(TextData!B:B,MATCH(B37,TextData!A:A))</f>
-        <v>攻撃無効</v>
+        <v>リジェネ</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="str">
         <f>INDEX(Define!B:B,MATCH(E37,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3879,35 +3885,35 @@
       </c>
       <c r="S37" t="str">
         <f>TextData!B36</f>
-        <v>攻撃無効</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B38">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX(TextData!B:B,MATCH(B38,TextData!A:A))</f>
-        <v>ドレイン</v>
+        <v>攻撃無効</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX(Define!B:B,MATCH(E38,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3941,22 +3947,22 @@
       </c>
       <c r="S38" t="str">
         <f>TextData!B37</f>
-        <v>ドレイン</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B39">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX(TextData!B:B,MATCH(B39,TextData!A:A))</f>
-        <v>状態異常CA</v>
+        <v>ドレイン</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3966,7 +3972,7 @@
         <v>ターン数</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
@@ -4003,29 +4009,29 @@
       </c>
       <c r="S39" t="str">
         <f>TextData!B38</f>
-        <v>状態異常CA</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="B40">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX(TextData!B:B,MATCH(B40,TextData!A:A))</f>
-        <v>パッシブ封じ</v>
+        <v>状態異常CA</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX(Define!B:B,MATCH(E40,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4046,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4065,22 +4071,22 @@
       </c>
       <c r="S40" t="str">
         <f>TextData!B39</f>
-        <v>パッシブ封じ</v>
+        <v>状態異常CA</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="B41">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX(TextData!B:B,MATCH(B41,TextData!A:A))</f>
-        <v>デバフ強化</v>
+        <v>パッシブ封じ</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -4090,16 +4096,16 @@
         <v>効果発揮回数</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4108,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -4127,41 +4133,41 @@
       </c>
       <c r="S41" t="str">
         <f>TextData!B40</f>
-        <v>デバフ強化</v>
+        <v>パッシブ封じ</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B42">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX(TextData!B:B,MATCH(B42,TextData!A:A))</f>
-        <v>挑発</v>
+        <v>デバフ強化</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="str">
         <f>INDEX(Define!B:B,MATCH(E42,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4189,35 +4195,35 @@
       </c>
       <c r="S42" t="str">
         <f>TextData!B41</f>
-        <v>挑発</v>
+        <v>デバフ強化</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B43">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX(TextData!B:B,MATCH(B43,TextData!A:A))</f>
-        <v>凍結</v>
+        <v>挑発</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX(Define!B:B,MATCH(E43,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4232,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -4251,35 +4257,35 @@
       </c>
       <c r="S43" t="str">
         <f>TextData!B42</f>
-        <v>凍結</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B44">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX(TextData!B:B,MATCH(B44,TextData!A:A))</f>
-        <v>スタン</v>
+        <v>凍結</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX(Define!B:B,MATCH(E44,Define!A:A))</f>
-        <v>APカウント</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4313,35 +4319,35 @@
       </c>
       <c r="S44" t="str">
         <f>TextData!B43</f>
-        <v>スタン</v>
+        <v>凍結</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="B45">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX(TextData!B:B,MATCH(B45,TextData!A:A))</f>
-        <v>状態異常回避</v>
+        <v>スタン</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX(Define!B:B,MATCH(E45,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>APカウント</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4356,16 +4362,16 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4375,29 +4381,29 @@
       </c>
       <c r="S45" t="str">
         <f>TextData!B44</f>
-        <v>状態異常回避</v>
+        <v>スタン</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B46">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX(TextData!B:B,MATCH(B46,TextData!A:A))</f>
-        <v>対象範囲延長</v>
+        <v>状態異常回避</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX(Define!B:B,MATCH(E46,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4433,26 +4439,26 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="str">
         <f>TextData!B45</f>
-        <v>対象範囲延長</v>
+        <v>状態異常回避</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B47">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX(TextData!B:B,MATCH(B47,TextData!A:A))</f>
-        <v>アフターヒール</v>
+        <v>対象範囲延長</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4462,7 +4468,7 @@
         <v>ターン数</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -4495,26 +4501,26 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="str">
         <f>TextData!B46</f>
-        <v>アフターヒール</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B48">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX(TextData!B:B,MATCH(B48,TextData!A:A))</f>
-        <v>即死付与</v>
+        <v>アフターヒール</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4524,7 +4530,7 @@
         <v>ターン数</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4561,32 +4567,32 @@
       </c>
       <c r="S48" t="str">
         <f>TextData!B47</f>
-        <v>即死付与</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B49">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX(TextData!B:B,MATCH(B49,TextData!A:A))</f>
-        <v>同時回復</v>
+        <v>即死付与</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX(Define!B:B,MATCH(E49,Define!A:A))</f>
-        <v>なし</v>
+        <v>ターン数</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -4613,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4623,32 +4629,32 @@
       </c>
       <c r="S49" t="str">
         <f>TextData!B48</f>
-        <v>同時回復</v>
+        <v>即死付与</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B50">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX(TextData!B:B,MATCH(B50,TextData!A:A))</f>
-        <v>必中</v>
+        <v>同時回復</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX(Define!B:B,MATCH(E50,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>なし</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -4685,29 +4691,29 @@
       </c>
       <c r="S50" t="str">
         <f>TextData!B49</f>
-        <v>必中</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B51">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX(TextData!B:B,MATCH(B51,TextData!A:A))</f>
-        <v>アシストヒール</v>
+        <v>必中</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX(Define!B:B,MATCH(E51,Define!A:A))</f>
-        <v>なし</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4747,22 +4753,22 @@
       </c>
       <c r="S51" t="str">
         <f>TextData!B50</f>
-        <v>アシストヒール</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="B52">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX(TextData!B:B,MATCH(B52,TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アシストヒール</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4809,22 +4815,22 @@
       </c>
       <c r="S52" t="str">
         <f>TextData!B51</f>
-        <v>アンデッド</v>
+        <v>アシストヒール</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B53">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX(TextData!B:B,MATCH(B53,TextData!A:A))</f>
-        <v>アクセル</v>
+        <v>アンデッド</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4871,32 +4877,32 @@
       </c>
       <c r="S53" t="str">
         <f>TextData!B52</f>
-        <v>アクセル</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B54">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX(TextData!B:B,MATCH(B54,TextData!A:A))</f>
-        <v>ダメージ威力アップ</v>
+        <v>アクセル</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="str">
         <f>INDEX(Define!B:B,MATCH(E54,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>なし</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -4908,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4917,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -4933,29 +4939,29 @@
       </c>
       <c r="S54" t="str">
         <f>TextData!B53</f>
-        <v>ダメージ威力アップ</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="B55">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX(TextData!B:B,MATCH(B55,TextData!A:A))</f>
-        <v>バフ解除</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
+        <v>ダメージ威力アップ</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!B:B,MATCH(E55,Define!A:A))</f>
-        <v>なし</v>
+        <v>ターン数</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -4970,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4995,29 +5001,29 @@
       </c>
       <c r="S55" t="str">
         <f>TextData!B54</f>
-        <v>バフ解除</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B56">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX(TextData!B:B,MATCH(B56,TextData!A:A))</f>
-        <v>貫通</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
+        <v>バフ解除</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!B:B,MATCH(E56,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>なし</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5035,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5057,22 +5063,22 @@
       </c>
       <c r="S56" t="str">
         <f>TextData!B55</f>
-        <v>貫通</v>
+        <v>バフ解除</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B57">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX(TextData!B:B,MATCH(B57,TextData!A:A))</f>
-        <v>対象列化</v>
+        <v>貫通</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5119,22 +5125,22 @@
       </c>
       <c r="S57" t="str">
         <f>TextData!B56</f>
-        <v>対象列化</v>
+        <v>貫通</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B58">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
-        <v>対象全体化</v>
+        <v>対象列化</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5181,22 +5187,22 @@
       </c>
       <c r="S58" t="str">
         <f>TextData!B57</f>
-        <v>対象全体化</v>
+        <v>対象列化</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="B59">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>聖棺</v>
+        <v>対象全体化</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5243,22 +5249,22 @@
       </c>
       <c r="S59" t="str">
         <f>TextData!B58</f>
-        <v>聖棺</v>
+        <v>対象全体化</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="B60">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>追加ダメージ</v>
+        <v>聖棺</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5305,19 +5311,19 @@
       </c>
       <c r="S60" t="str">
         <f>TextData!B59</f>
-        <v>追加ダメージ</v>
+        <v>聖棺</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="B61">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>追加効果</v>
+        <v>追加ダメージ</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
@@ -5367,22 +5373,22 @@
       </c>
       <c r="S61" t="str">
         <f>TextData!B60</f>
-        <v>追加効果</v>
+        <v>追加ダメージ</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="B62">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>透明</v>
+        <v>追加効果</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5429,22 +5435,22 @@
       </c>
       <c r="S62" t="str">
         <f>TextData!B61</f>
-        <v>透明</v>
+        <v>追加効果</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="B63">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
-        <v>沈黙</v>
+        <v>透明</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5469,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5491,22 +5497,22 @@
       </c>
       <c r="S63" t="str">
         <f>TextData!B62</f>
-        <v>沈黙</v>
+        <v>透明</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B64">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>不治</v>
+        <v>沈黙</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5553,22 +5559,22 @@
       </c>
       <c r="S64" t="str">
         <f>TextData!B63</f>
-        <v>不治</v>
+        <v>沈黙</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="B65">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>シールド</v>
+        <v>不治</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5593,16 +5599,16 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -5615,22 +5621,22 @@
       </c>
       <c r="S65" t="str">
         <f>TextData!B64</f>
-        <v>シールド</v>
+        <v>不治</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="B66">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>フォロー</v>
+        <v>シールド</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5677,29 +5683,29 @@
       </c>
       <c r="S66" t="str">
         <f>TextData!B65</f>
-        <v>フォロー</v>
+        <v>シールド</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="B67">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>かばう</v>
+        <v>フォロー</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!B:B,MATCH(E67,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -5732,36 +5738,36 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>1</v>
       </c>
       <c r="S67" t="str">
         <f>TextData!B66</f>
-        <v>かばう</v>
+        <v>フォロー</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="B68">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
-        <v>Ap消費半減</v>
+        <v>かばう</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!B:B,MATCH(E68,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -5794,36 +5800,36 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>1</v>
       </c>
       <c r="S68" t="str">
         <f>TextData!B67</f>
-        <v>Ap消費半減</v>
+        <v>かばう</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="B69">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
-        <v>不死</v>
+        <v>Ap消費半減</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!B:B,MATCH(E69,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -5863,29 +5869,29 @@
       </c>
       <c r="S69" t="str">
         <f>TextData!B68</f>
-        <v>不死</v>
+        <v>Ap消費半減</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="B70">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>Hp回復効果アップ</v>
+        <v>不死</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!B:B,MATCH(E70,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -5925,29 +5931,29 @@
       </c>
       <c r="S70" t="str">
         <f>TextData!B69</f>
-        <v>Hp回復効果アップ</v>
+        <v>不死</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="B71">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>呪詛</v>
+        <v>Hp回復効果アップ</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!B:B,MATCH(E71,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -5987,29 +5993,29 @@
       </c>
       <c r="S71" t="str">
         <f>TextData!B70</f>
-        <v>呪詛</v>
+        <v>Hp回復効果アップ</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="B72">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>チャージ</v>
+        <v>呪詛</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!B:B,MATCH(E72,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6027,19 +6033,19 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -6049,19 +6055,19 @@
       </c>
       <c r="S72" t="str">
         <f>TextData!B71</f>
-        <v>チャージ</v>
+        <v>呪詛</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="B73">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>テスト用</v>
+        <v>チャージ</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
@@ -6111,6 +6117,68 @@
       </c>
       <c r="S73" t="str">
         <f>TextData!B72</f>
+        <v>チャージ</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74">
+        <v>9999</v>
+      </c>
+      <c r="B74">
+        <v>9999</v>
+      </c>
+      <c r="C74" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
+        <v>テスト用</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f>INDEX(Define!B:B,MATCH(E74,Define!A:A))</f>
+        <v>ターン数</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74" t="str">
+        <f>TextData!B73</f>
         <v>テスト用</v>
       </c>
     </row>
@@ -6124,10 +6192,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6478,7 +6546,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B32" t="s">
         <v>119</v>
@@ -6489,7 +6557,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B33" t="s">
         <v>121</v>
@@ -6500,7 +6568,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
@@ -6511,7 +6579,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
@@ -6522,7 +6590,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B36" t="s">
         <v>127</v>
@@ -6533,7 +6601,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B37" t="s">
         <v>129</v>
@@ -6544,7 +6612,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B38" t="s">
         <v>131</v>
@@ -6555,7 +6623,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="B39" t="s">
         <v>133</v>
@@ -6566,7 +6634,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="B40" t="s">
         <v>135</v>
@@ -6577,7 +6645,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
@@ -6588,7 +6656,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B42" t="s">
         <v>139</v>
@@ -6599,7 +6667,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B43" t="s">
         <v>141</v>
@@ -6610,7 +6678,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
@@ -6621,7 +6689,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B45" t="s">
         <v>145</v>
@@ -6632,7 +6700,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B46" t="s">
         <v>147</v>
@@ -6643,7 +6711,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B47" t="s">
         <v>149</v>
@@ -6654,7 +6722,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B48" t="s">
         <v>151</v>
@@ -6665,7 +6733,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B49" t="s">
         <v>153</v>
@@ -6676,7 +6744,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B50" t="s">
         <v>155</v>
@@ -6687,7 +6755,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="B51" t="s">
         <v>157</v>
@@ -6698,7 +6766,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B52" t="s">
         <v>159</v>
@@ -6709,7 +6777,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B53" t="s">
         <v>161</v>
@@ -6720,7 +6788,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="B54" t="s">
         <v>163</v>
@@ -6731,7 +6799,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B55" t="s">
         <v>165</v>
@@ -6742,7 +6810,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
@@ -6753,7 +6821,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B57" t="s">
         <v>169</v>
@@ -6764,7 +6832,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="B58" t="s">
         <v>171</v>
@@ -6775,7 +6843,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -6786,7 +6854,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="B60" t="s">
         <v>175</v>
@@ -6797,7 +6865,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="B61" t="s">
         <v>177</v>
@@ -6808,7 +6876,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="B62" t="s">
         <v>179</v>
@@ -6819,7 +6887,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
@@ -6830,7 +6898,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="B64" t="s">
         <v>183</v>
@@ -6841,7 +6909,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="B65" t="s">
         <v>185</v>
@@ -6852,7 +6920,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="B66" t="s">
         <v>187</v>
@@ -6863,7 +6931,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="B67" t="s">
         <v>189</v>
@@ -6874,7 +6942,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="B68" t="s">
         <v>191</v>
@@ -6885,7 +6953,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="B69" t="s">
         <v>193</v>
@@ -6896,7 +6964,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="B70" t="s">
         <v>195</v>
@@ -6907,7 +6975,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="B71" t="s">
         <v>197</v>
@@ -6918,12 +6986,23 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="B72" t="s">
         <v>199</v>
       </c>
       <c r="C72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>9999</v>
+      </c>
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6954,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6962,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6970,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6978,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6986,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6994,7 +7073,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>毒</t>
+  </si>
+  <si>
+    <t>Blind</t>
   </si>
   <si>
     <t>ShieldReflect</t>
@@ -647,10 +650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -662,16 +665,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,9 +701,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,16 +715,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,17 +770,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,21 +793,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -792,14 +802,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,30 +814,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -850,19 +829,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,97 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,25 +985,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,32 +1026,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,8 +1038,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,11 +1059,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,11 +1094,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,16 +1116,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,124 +1137,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,7 +1584,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1593,7 +1596,7 @@
     <col min="7" max="7" width="5.54545454545455" customWidth="1"/>
     <col min="8" max="8" width="12.8181818181818" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="3.90909090909091" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="8.63636363636364" customWidth="1"/>
     <col min="12" max="12" width="8.54545454545454" customWidth="1"/>
     <col min="13" max="16" width="11.2727272727273" customWidth="1"/>
@@ -3603,13 +3606,13 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3652,7 +3655,7 @@
         <v>カウンタ</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3665,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3714,7 +3717,7 @@
         <v>CAダメージ</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3776,7 +3779,7 @@
         <v>CAシェル</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3838,7 +3841,7 @@
         <v>リジェネ</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3900,7 +3903,7 @@
         <v>攻撃無効</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3962,7 +3965,7 @@
         <v>ドレイン</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4024,7 +4027,7 @@
         <v>状態異常CA</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -4086,7 +4089,7 @@
         <v>パッシブ封じ</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -4148,7 +4151,7 @@
         <v>デバフ強化</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -4161,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4210,7 +4213,7 @@
         <v>挑発</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4272,7 +4275,7 @@
         <v>凍結</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -4285,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4334,7 +4337,7 @@
         <v>スタン</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -4347,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4396,7 +4399,7 @@
         <v>状態異常回避</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4458,7 +4461,7 @@
         <v>対象範囲延長</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4520,7 +4523,7 @@
         <v>アフターヒール</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4644,7 +4647,7 @@
         <v>同時回復</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4768,7 +4771,7 @@
         <v>アシストヒール</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4830,7 +4833,7 @@
         <v>アンデッド</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4954,7 +4957,7 @@
         <v>ダメージ威力アップ</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5078,7 +5081,7 @@
         <v>貫通</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5140,7 +5143,7 @@
         <v>対象列化</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5202,7 +5205,7 @@
         <v>対象全体化</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5264,7 +5267,7 @@
         <v>聖棺</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5326,7 +5329,7 @@
         <v>追加ダメージ</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5388,7 +5391,7 @@
         <v>追加効果</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5450,7 +5453,7 @@
         <v>透明</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5512,7 +5515,7 @@
         <v>沈黙</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5574,7 +5577,7 @@
         <v>不治</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5636,7 +5639,7 @@
         <v>シールド</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5698,7 +5701,7 @@
         <v>フォロー</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5760,7 +5763,7 @@
         <v>かばう</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -5884,7 +5887,7 @@
         <v>不死</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -5946,7 +5949,7 @@
         <v>Hp回復効果アップ</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -6008,7 +6011,7 @@
         <v>呪詛</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -6070,7 +6073,7 @@
         <v>チャージ</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6132,7 +6135,7 @@
         <v>テスト用</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6208,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6219,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6230,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -6241,10 +6244,10 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6252,10 +6255,10 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6263,10 +6266,10 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6274,10 +6277,10 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6285,10 +6288,10 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6296,10 +6299,10 @@
         <v>1010</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6307,10 +6310,10 @@
         <v>1011</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6318,10 +6321,10 @@
         <v>1020</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6329,10 +6332,10 @@
         <v>1030</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6340,10 +6343,10 @@
         <v>1040</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6351,10 +6354,10 @@
         <v>1041</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6362,10 +6365,10 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6373,10 +6376,10 @@
         <v>1044</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6384,10 +6387,10 @@
         <v>1050</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6395,10 +6398,10 @@
         <v>1051</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6406,10 +6409,10 @@
         <v>1052</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6417,10 +6420,10 @@
         <v>1060</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6428,10 +6431,10 @@
         <v>1070</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6439,10 +6442,10 @@
         <v>1074</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6450,10 +6453,10 @@
         <v>1080</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6461,10 +6464,10 @@
         <v>1081</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6472,10 +6475,10 @@
         <v>1082</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6483,10 +6486,10 @@
         <v>1090</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6494,10 +6497,10 @@
         <v>1091</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6505,10 +6508,10 @@
         <v>1092</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6516,10 +6519,10 @@
         <v>1100</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6527,10 +6530,10 @@
         <v>1101</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6541,7 +6544,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6549,10 +6552,10 @@
         <v>2020</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6560,10 +6563,10 @@
         <v>2030</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6571,10 +6574,10 @@
         <v>2031</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6582,10 +6585,10 @@
         <v>2032</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6593,10 +6596,10 @@
         <v>2040</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6604,10 +6607,10 @@
         <v>2050</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6615,10 +6618,10 @@
         <v>2060</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6626,10 +6629,10 @@
         <v>2070</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6637,10 +6640,10 @@
         <v>2090</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6648,10 +6651,10 @@
         <v>2120</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6659,10 +6662,10 @@
         <v>2130</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6670,10 +6673,10 @@
         <v>2140</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6681,10 +6684,10 @@
         <v>2150</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6692,10 +6695,10 @@
         <v>2180</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6703,10 +6706,10 @@
         <v>2190</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6714,10 +6717,10 @@
         <v>2210</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6725,10 +6728,10 @@
         <v>2220</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6736,10 +6739,10 @@
         <v>2230</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6747,10 +6750,10 @@
         <v>2240</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6758,10 +6761,10 @@
         <v>2250</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6769,10 +6772,10 @@
         <v>2270</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6780,10 +6783,10 @@
         <v>2280</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6791,10 +6794,10 @@
         <v>2290</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6802,10 +6805,10 @@
         <v>2320</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6813,10 +6816,10 @@
         <v>2330</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6824,10 +6827,10 @@
         <v>2340</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6835,10 +6838,10 @@
         <v>2341</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6846,10 +6849,10 @@
         <v>2350</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6857,10 +6860,10 @@
         <v>2360</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6868,10 +6871,10 @@
         <v>2370</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6879,10 +6882,10 @@
         <v>2380</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6890,10 +6893,10 @@
         <v>2390</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6901,10 +6904,10 @@
         <v>2400</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6912,10 +6915,10 @@
         <v>2410</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6923,10 +6926,10 @@
         <v>2420</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6934,10 +6937,10 @@
         <v>2430</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6945,10 +6948,10 @@
         <v>2440</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6956,10 +6959,10 @@
         <v>2450</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6967,10 +6970,10 @@
         <v>2460</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6978,10 +6981,10 @@
         <v>2470</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6989,10 +6992,10 @@
         <v>3010</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7000,7 +7003,7 @@
         <v>9999</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -7033,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7041,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7049,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7057,7 +7060,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7065,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7073,7 +7076,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>状態異常を反射しダメージを与える</t>
+  </si>
+  <si>
+    <t>反撃</t>
+  </si>
+  <si>
+    <t>攻撃された際に行動できる</t>
   </si>
   <si>
     <t>パッシブ封じ</t>
@@ -651,8 +657,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -664,6 +670,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -671,23 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +725,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -709,15 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,14 +778,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -748,30 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,30 +809,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +823,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,25 +949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,61 +967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,67 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,6 +1014,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1022,39 +1043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,7 +1066,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,17 +1091,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,145 +1122,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4079,17 +4085,17 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B41">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX(TextData!B:B,MATCH(B41,TextData!A:A))</f>
-        <v>パッシブ封じ</v>
+        <v>反撃</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -4117,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4136,22 +4142,22 @@
       </c>
       <c r="S41" t="str">
         <f>TextData!B40</f>
-        <v>パッシブ封じ</v>
+        <v>反撃</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="B42">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX(TextData!B:B,MATCH(B42,TextData!A:A))</f>
-        <v>デバフ強化</v>
+        <v>パッシブ封じ</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -4161,16 +4167,16 @@
         <v>効果発揮回数</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4179,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -4198,41 +4204,41 @@
       </c>
       <c r="S42" t="str">
         <f>TextData!B41</f>
-        <v>デバフ強化</v>
+        <v>パッシブ封じ</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B43">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX(TextData!B:B,MATCH(B43,TextData!A:A))</f>
-        <v>挑発</v>
+        <v>デバフ強化</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX(Define!B:B,MATCH(E43,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4260,35 +4266,35 @@
       </c>
       <c r="S43" t="str">
         <f>TextData!B42</f>
-        <v>挑発</v>
+        <v>デバフ強化</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B44">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX(TextData!B:B,MATCH(B44,TextData!A:A))</f>
-        <v>凍結</v>
+        <v>挑発</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX(Define!B:B,MATCH(E44,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4303,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -4322,35 +4328,35 @@
       </c>
       <c r="S44" t="str">
         <f>TextData!B43</f>
-        <v>凍結</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B45">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX(TextData!B:B,MATCH(B45,TextData!A:A))</f>
-        <v>スタン</v>
+        <v>凍結</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX(Define!B:B,MATCH(E45,Define!A:A))</f>
-        <v>APカウント</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4384,35 +4390,35 @@
       </c>
       <c r="S45" t="str">
         <f>TextData!B44</f>
-        <v>スタン</v>
+        <v>凍結</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="B46">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX(TextData!B:B,MATCH(B46,TextData!A:A))</f>
-        <v>状態異常回避</v>
+        <v>スタン</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX(Define!B:B,MATCH(E46,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>APカウント</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4427,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4446,29 +4452,29 @@
       </c>
       <c r="S46" t="str">
         <f>TextData!B45</f>
-        <v>状態異常回避</v>
+        <v>スタン</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B47">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX(TextData!B:B,MATCH(B47,TextData!A:A))</f>
-        <v>対象範囲延長</v>
+        <v>状態異常回避</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX(Define!B:B,MATCH(E47,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4504,26 +4510,26 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="str">
         <f>TextData!B46</f>
-        <v>対象範囲延長</v>
+        <v>状態異常回避</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B48">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX(TextData!B:B,MATCH(B48,TextData!A:A))</f>
-        <v>アフターヒール</v>
+        <v>対象範囲延長</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4533,7 +4539,7 @@
         <v>ターン数</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -4566,26 +4572,26 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="str">
         <f>TextData!B47</f>
-        <v>アフターヒール</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B49">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX(TextData!B:B,MATCH(B49,TextData!A:A))</f>
-        <v>即死付与</v>
+        <v>アフターヒール</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4595,7 +4601,7 @@
         <v>ターン数</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -4622,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4632,32 +4638,32 @@
       </c>
       <c r="S49" t="str">
         <f>TextData!B48</f>
-        <v>即死付与</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B50">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX(TextData!B:B,MATCH(B50,TextData!A:A))</f>
-        <v>同時回復</v>
+        <v>即死付与</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX(Define!B:B,MATCH(E50,Define!A:A))</f>
-        <v>なし</v>
+        <v>ターン数</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -4684,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4694,32 +4700,32 @@
       </c>
       <c r="S50" t="str">
         <f>TextData!B49</f>
-        <v>同時回復</v>
+        <v>即死付与</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B51">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX(TextData!B:B,MATCH(B51,TextData!A:A))</f>
-        <v>必中</v>
+        <v>同時回復</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX(Define!B:B,MATCH(E51,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>なし</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
@@ -4756,29 +4762,29 @@
       </c>
       <c r="S51" t="str">
         <f>TextData!B50</f>
-        <v>必中</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B52">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX(TextData!B:B,MATCH(B52,TextData!A:A))</f>
-        <v>アシストヒール</v>
+        <v>必中</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="str">
         <f>INDEX(Define!B:B,MATCH(E52,Define!A:A))</f>
-        <v>なし</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4818,22 +4824,22 @@
       </c>
       <c r="S52" t="str">
         <f>TextData!B51</f>
-        <v>アシストヒール</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="B53">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX(TextData!B:B,MATCH(B53,TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アシストヒール</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4880,22 +4886,22 @@
       </c>
       <c r="S53" t="str">
         <f>TextData!B52</f>
-        <v>アンデッド</v>
+        <v>アシストヒール</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B54">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX(TextData!B:B,MATCH(B54,TextData!A:A))</f>
-        <v>アクセル</v>
+        <v>アンデッド</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4942,32 +4948,32 @@
       </c>
       <c r="S54" t="str">
         <f>TextData!B53</f>
-        <v>アクセル</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B55">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX(TextData!B:B,MATCH(B55,TextData!A:A))</f>
-        <v>ダメージ威力アップ</v>
+        <v>アクセル</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!B:B,MATCH(E55,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>なし</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -4979,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4988,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -5004,29 +5010,29 @@
       </c>
       <c r="S55" t="str">
         <f>TextData!B54</f>
-        <v>ダメージ威力アップ</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="B56">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX(TextData!B:B,MATCH(B56,TextData!A:A))</f>
-        <v>バフ解除</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>ダメージ威力アップ</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!B:B,MATCH(E56,Define!A:A))</f>
-        <v>なし</v>
+        <v>ターン数</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5041,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5050,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -5066,29 +5072,29 @@
       </c>
       <c r="S56" t="str">
         <f>TextData!B55</f>
-        <v>バフ解除</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B57">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX(TextData!B:B,MATCH(B57,TextData!A:A))</f>
-        <v>貫通</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
+        <v>バフ解除</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!B:B,MATCH(E57,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>なし</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5106,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5128,22 +5134,22 @@
       </c>
       <c r="S57" t="str">
         <f>TextData!B56</f>
-        <v>貫通</v>
+        <v>バフ解除</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B58">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
-        <v>対象列化</v>
+        <v>貫通</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5190,22 +5196,22 @@
       </c>
       <c r="S58" t="str">
         <f>TextData!B57</f>
-        <v>対象列化</v>
+        <v>貫通</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B59">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
-        <v>対象全体化</v>
+        <v>対象列化</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5252,22 +5258,22 @@
       </c>
       <c r="S59" t="str">
         <f>TextData!B58</f>
-        <v>対象全体化</v>
+        <v>対象列化</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="B60">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
-        <v>聖棺</v>
+        <v>対象全体化</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5314,22 +5320,22 @@
       </c>
       <c r="S60" t="str">
         <f>TextData!B59</f>
-        <v>聖棺</v>
+        <v>対象全体化</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="B61">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
-        <v>追加ダメージ</v>
+        <v>聖棺</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5376,19 +5382,19 @@
       </c>
       <c r="S61" t="str">
         <f>TextData!B60</f>
-        <v>追加ダメージ</v>
+        <v>聖棺</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="B62">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
-        <v>追加効果</v>
+        <v>追加ダメージ</v>
       </c>
       <c r="D62" t="s">
         <v>59</v>
@@ -5438,22 +5444,22 @@
       </c>
       <c r="S62" t="str">
         <f>TextData!B61</f>
-        <v>追加効果</v>
+        <v>追加ダメージ</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="B63">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
-        <v>透明</v>
+        <v>追加効果</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5500,22 +5506,22 @@
       </c>
       <c r="S63" t="str">
         <f>TextData!B62</f>
-        <v>透明</v>
+        <v>追加効果</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="B64">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
-        <v>沈黙</v>
+        <v>透明</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -5540,19 +5546,19 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5562,22 +5568,22 @@
       </c>
       <c r="S64" t="str">
         <f>TextData!B63</f>
-        <v>沈黙</v>
+        <v>透明</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B65">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
-        <v>不治</v>
+        <v>沈黙</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -5624,22 +5630,22 @@
       </c>
       <c r="S65" t="str">
         <f>TextData!B64</f>
-        <v>不治</v>
+        <v>沈黙</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="B66">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
-        <v>シールド</v>
+        <v>不治</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5664,16 +5670,16 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -5686,22 +5692,22 @@
       </c>
       <c r="S66" t="str">
         <f>TextData!B65</f>
-        <v>シールド</v>
+        <v>不治</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="B67">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
-        <v>フォロー</v>
+        <v>シールド</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5748,29 +5754,29 @@
       </c>
       <c r="S67" t="str">
         <f>TextData!B66</f>
-        <v>フォロー</v>
+        <v>シールド</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="B68">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
-        <v>かばう</v>
+        <v>フォロー</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!B:B,MATCH(E68,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -5803,36 +5809,36 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68">
         <v>1</v>
       </c>
       <c r="S68" t="str">
         <f>TextData!B67</f>
-        <v>かばう</v>
+        <v>フォロー</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="B69">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
-        <v>Ap消費半減</v>
+        <v>かばう</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!B:B,MATCH(E69,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -5865,36 +5871,36 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="S69" t="str">
         <f>TextData!B68</f>
-        <v>Ap消費半減</v>
+        <v>かばう</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="B70">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX(TextData!B:B,MATCH(B70,TextData!A:A))</f>
-        <v>不死</v>
+        <v>Ap消費半減</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!B:B,MATCH(E70,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -5934,29 +5940,29 @@
       </c>
       <c r="S70" t="str">
         <f>TextData!B69</f>
-        <v>不死</v>
+        <v>Ap消費半減</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="B71">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX(TextData!B:B,MATCH(B71,TextData!A:A))</f>
-        <v>Hp回復効果アップ</v>
+        <v>不死</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!B:B,MATCH(E71,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -5996,29 +6002,29 @@
       </c>
       <c r="S71" t="str">
         <f>TextData!B70</f>
-        <v>Hp回復効果アップ</v>
+        <v>不死</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="B72">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX(TextData!B:B,MATCH(B72,TextData!A:A))</f>
-        <v>呪詛</v>
+        <v>Hp回復効果アップ</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!B:B,MATCH(E72,Define!A:A))</f>
-        <v>効果発揮回数</v>
+        <v>ターン数</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6058,29 +6064,29 @@
       </c>
       <c r="S72" t="str">
         <f>TextData!B71</f>
-        <v>呪詛</v>
+        <v>Hp回復効果アップ</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="B73">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX(TextData!B:B,MATCH(B73,TextData!A:A))</f>
-        <v>チャージ</v>
+        <v>呪詛</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" t="str">
         <f>INDEX(Define!B:B,MATCH(E73,Define!A:A))</f>
-        <v>ターン数</v>
+        <v>効果発揮回数</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6098,19 +6104,19 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6120,19 +6126,19 @@
       </c>
       <c r="S73" t="str">
         <f>TextData!B72</f>
-        <v>チャージ</v>
+        <v>呪詛</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="A74">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="B74">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX(TextData!B:B,MATCH(B74,TextData!A:A))</f>
-        <v>テスト用</v>
+        <v>チャージ</v>
       </c>
       <c r="D74" t="s">
         <v>59</v>
@@ -6182,6 +6188,68 @@
       </c>
       <c r="S74" t="str">
         <f>TextData!B73</f>
+        <v>チャージ</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75">
+        <v>9999</v>
+      </c>
+      <c r="B75">
+        <v>9999</v>
+      </c>
+      <c r="C75" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
+        <v>テスト用</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f>INDEX(Define!B:B,MATCH(E75,Define!A:A))</f>
+        <v>ターン数</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75" t="str">
+        <f>TextData!B74</f>
         <v>テスト用</v>
       </c>
     </row>
@@ -6195,10 +6263,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -6637,7 +6705,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B40" t="s">
         <v>136</v>
@@ -6648,7 +6716,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2120</v>
+        <v>2090</v>
       </c>
       <c r="B41" t="s">
         <v>138</v>
@@ -6659,7 +6727,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B42" t="s">
         <v>140</v>
@@ -6670,7 +6738,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B43" t="s">
         <v>142</v>
@@ -6681,7 +6749,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B44" t="s">
         <v>144</v>
@@ -6692,7 +6760,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="B45" t="s">
         <v>146</v>
@@ -6703,7 +6771,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B46" t="s">
         <v>148</v>
@@ -6714,7 +6782,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B47" t="s">
         <v>150</v>
@@ -6725,7 +6793,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B48" t="s">
         <v>152</v>
@@ -6736,7 +6804,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B49" t="s">
         <v>154</v>
@@ -6747,7 +6815,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B50" t="s">
         <v>156</v>
@@ -6758,7 +6826,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B51" t="s">
         <v>158</v>
@@ -6769,7 +6837,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="B52" t="s">
         <v>160</v>
@@ -6780,7 +6848,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B53" t="s">
         <v>162</v>
@@ -6791,7 +6859,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B54" t="s">
         <v>164</v>
@@ -6802,7 +6870,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2320</v>
+        <v>2290</v>
       </c>
       <c r="B55" t="s">
         <v>166</v>
@@ -6813,7 +6881,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B56" t="s">
         <v>168</v>
@@ -6824,7 +6892,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B57" t="s">
         <v>170</v>
@@ -6835,7 +6903,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B58" t="s">
         <v>172</v>
@@ -6846,7 +6914,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="B59" t="s">
         <v>174</v>
@@ -6857,7 +6925,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="B60" t="s">
         <v>176</v>
@@ -6868,7 +6936,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="B61" t="s">
         <v>178</v>
@@ -6879,7 +6947,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="B62" t="s">
         <v>180</v>
@@ -6890,7 +6958,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="B63" t="s">
         <v>182</v>
@@ -6901,7 +6969,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B64" t="s">
         <v>184</v>
@@ -6912,7 +6980,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -6923,7 +6991,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2420</v>
+        <v>2410</v>
       </c>
       <c r="B66" t="s">
         <v>188</v>
@@ -6934,7 +7002,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2430</v>
+        <v>2420</v>
       </c>
       <c r="B67" t="s">
         <v>190</v>
@@ -6945,7 +7013,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="B68" t="s">
         <v>192</v>
@@ -6956,7 +7024,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="B69" t="s">
         <v>194</v>
@@ -6967,7 +7035,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="B70" t="s">
         <v>196</v>
@@ -6978,7 +7046,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="B71" t="s">
         <v>198</v>
@@ -6989,7 +7057,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3010</v>
+        <v>2470</v>
       </c>
       <c r="B72" t="s">
         <v>200</v>
@@ -7000,12 +7068,23 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>9999</v>
+        <v>3010</v>
       </c>
       <c r="B73" t="s">
         <v>202</v>
       </c>
       <c r="C73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>9999</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7036,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7044,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7052,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7060,7 +7139,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7068,7 +7147,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7076,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -628,6 +628,12 @@
   </si>
   <si>
     <t>次の行動でのフラグが立つ</t>
+  </si>
+  <si>
+    <t>リンケージ</t>
+  </si>
+  <si>
+    <t>行動後に後衛と交代する</t>
   </si>
   <si>
     <t>テスト用</t>
@@ -657,9 +663,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -672,6 +678,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -679,30 +709,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,17 +770,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,66 +819,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -823,25 +829,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,13 +883,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,43 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,67 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1020,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1033,21 +1074,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1058,35 +1084,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,6 +1106,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1122,16 +1128,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,127 +1146,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,10 +1593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -6193,14 +6199,14 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75">
-        <v>9999</v>
+        <v>3020</v>
       </c>
       <c r="B75">
-        <v>9999</v>
+        <v>3020</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX(TextData!B:B,MATCH(B75,TextData!A:A))</f>
-        <v>テスト用</v>
+        <v>リンケージ</v>
       </c>
       <c r="D75" t="s">
         <v>59</v>
@@ -6250,6 +6256,68 @@
       </c>
       <c r="S75" t="str">
         <f>TextData!B74</f>
+        <v>リンケージ</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76">
+        <v>9999</v>
+      </c>
+      <c r="B76">
+        <v>9999</v>
+      </c>
+      <c r="C76" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B76,TextData!A:A))</f>
+        <v>テスト用</v>
+      </c>
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <f>INDEX(Define!B:B,MATCH(E76,Define!A:A))</f>
+        <v>ターン数</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" t="str">
+        <f>TextData!B75</f>
         <v>テスト用</v>
       </c>
     </row>
@@ -6263,10 +6331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -7079,12 +7147,23 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>9999</v>
+        <v>3020</v>
       </c>
       <c r="B74" t="s">
         <v>204</v>
       </c>
       <c r="C74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>9999</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7115,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7123,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7131,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7139,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7147,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7155,7 +7234,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
